--- a/docs/StructureDefinition-vision-prescription.xlsx
+++ b/docs/StructureDefinition-vision-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/vision-prescription</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/vision-prescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreVisionPrescription</t>
+    <t>SehatukCoreVisionPrescription</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>RoadxCore  VisionPrescription</t>
+    <t>SehatukCore  VisionPrescription</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore VisionPrescription Profile</t>
+    <t>SehatukCore VisionPrescription Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,6 @@
     <t>An authorization for the provision of glasses and/or contact lenses to a patient.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -263,47 +259,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>VisionPrescription.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>VisionPrescription.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>VisionPrescription.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>VisionPrescription.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -356,10 +356,6 @@
     <t>VisionPrescription.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -682,7 +678,7 @@
     <t>VisionPrescription.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/patient)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/patient)
 </t>
   </si>
   <si>
@@ -705,6 +701,93 @@
   </si>
   <si>
     <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.id</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.extension</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-relative-reference:Reference should be a relative reference within message bundle using existing entry.fullUrl {Bundle.type='message' implies matches('((http|https)://([A-Za-z0-9-.:%$]*/)+)(Account|ActivityDefinition|AdverseEvent|AllergyIntolerance|Appointment|AppointmentResponse|AuditEvent|Basic|Binary|BiologicallyDerivedProduct|BodyStructure|Bundle|CapabilityStatement|CarePlan|CareTeam|CatalogEntry|ChargeItem|ChargeItemDefinition|Claim|ClaimResponse|ClinicalImpression|CodeSystem|Communication|CommunicationRequest|CompartmentDefinition|Composition|ConceptMap|Condition|Consent|Contract|Coverage|CoverageEligibilityRequest|CoverageEligibilityResponse|DetectedIssue|Device|DeviceDefinition|DeviceMetric|DeviceRequest|DeviceUseStatement|DiagnosticReport|DocumentManifest|DocumentReference|EffectEvidenceSynthesis|Encounter|Endpoint|EnrollmentRequest|EnrollmentResponse|EpisodeOfCare|EventDefinition|Evidence|EvidenceVariable|ExampleScenario|ExplanationOfBenefit|FamilyMemberHistory|Flag|Goal|GraphDefinition|Group|GuidanceResponse|HealthcareService|ImagingStudy|Immunization|ImmunizationEvaluation|ImmunizationRecommendation|ImplementationGuide|InsurancePlan|Invoice|Library|Linkage|List|Location|Measure|MeasureReport|Media|Medication|MedicationAdministration|MedicationDispense|MedicationKnowledge|MedicationRequest|MedicationStatement|MedicinalProduct|MedicinalProductAuthorization|MedicinalProductContraindication|MedicinalProductIndication|MedicinalProductIngredient|MedicinalProductInteraction|MedicinalProductManufactured|MedicinalProductPackaged|MedicinalProductPharmaceutical|MedicinalProductUndesirableEffect|MessageDefinition|MessageHeader|MolecularSequence|NamingSystem|NutritionOrder|Observation|ObservationDefinition|OperationDefinition|OperationOutcome|Organization|OrganizationAffiliation|Patient|PaymentNotice|PaymentReconciliation|Person|PlanDefinition|Practitioner|PractitionerRole|Procedure|Provenance|Questionnaire|QuestionnaireResponse|RelatedPerson|RequestGroup|ResearchDefinition|ResearchElementDefinition|ResearchStudy|ResearchSubject|RiskAssessment|RiskEvidenceSynthesis|Schedule|SearchParameter|ServiceRequest|Slot|Specimen|SpecimenDefinition|StructureDefinition|StructureMap|Subscription|Substance|SubstanceNucleicAcid|SubstancePolymer|SubstanceProtein|SubstanceReferenceInformation|SubstanceSourceMaterial|SubstanceSpecification|SupplyDelivery|SupplyRequest|Task|TerminologyCapabilities|TestReport|TestScript|ValueSet|VerificationResult|VisionPrescription)/[A-Za-z0-9-.]{1,64}(/_history/[A-Za-z0-9-.]{1,64})?')}</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>VisionPrescription.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>VisionPrescription.encounter</t>
@@ -842,7 +925,7 @@
     <t>Need to identify whether glasses or contacts.</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/lens-type</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/lens-type</t>
   </si>
   <si>
     <t>consumable.role</t>
@@ -1510,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1519,15 +1602,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="58.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1538,25 +1621,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.26953125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="45.9453125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1773,13 +1856,13 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>71</v>
@@ -1790,7 +1873,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1798,31 +1881,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1872,13 +1955,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1901,7 +1984,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1909,28 +1992,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1981,19 +2064,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -2010,7 +2093,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2021,7 +2104,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -2033,7 +2116,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>94</v>
@@ -2096,7 +2179,7 @@
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -2241,28 +2324,28 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2312,19 +2395,19 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -2341,7 +2424,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2352,28 +2435,28 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2423,19 +2506,19 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -2452,7 +2535,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2463,28 +2546,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2534,19 +2617,19 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2563,7 +2646,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2571,31 +2654,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2645,7 +2728,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2657,7 +2740,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2674,7 +2757,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2694,19 +2777,19 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2732,31 +2815,31 @@
         <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2768,7 +2851,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -2785,7 +2868,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2805,19 +2888,19 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2843,31 +2926,31 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2879,7 +2962,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -2896,7 +2979,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2907,28 +2990,28 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2978,19 +3061,19 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -3007,7 +3090,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3018,7 +3101,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -3030,16 +3113,16 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3065,43 +3148,43 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -3118,18 +3201,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -3141,16 +3224,16 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3200,25 +3283,25 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>71</v>
@@ -3229,11 +3312,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3252,16 +3335,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3311,7 +3394,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3329,7 +3412,7 @@
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>71</v>
@@ -3340,7 +3423,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3369,7 +3452,7 @@
         <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>103</v>
@@ -3422,7 +3505,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3440,7 +3523,7 @@
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>71</v>
@@ -3451,7 +3534,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3468,7 +3551,7 @@
         <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3477,16 +3560,16 @@
         <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3535,7 +3618,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3553,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>71</v>
@@ -3564,7 +3647,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3572,14 +3655,14 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3587,17 +3670,17 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3646,7 +3729,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3658,24 +3741,24 @@
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3683,34 +3766,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -3735,52 +3818,52 @@
         <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>71</v>
@@ -3788,7 +3871,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3796,32 +3879,32 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3870,19 +3953,19 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
@@ -3899,7 +3982,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3907,32 +3990,32 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3981,36 +4064,36 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM22" t="s" s="2">
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>221</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4021,10 +4104,10 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -4033,18 +4116,16 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
       </c>
@@ -4092,72 +4173,70 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -4193,48 +4272,48 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4242,33 +4321,33 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -4316,36 +4395,36 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4353,30 +4432,32 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
@@ -4401,13 +4482,13 @@
         <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>71</v>
@@ -4425,25 +4506,25 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>71</v>
@@ -4454,7 +4535,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4465,27 +4546,29 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
@@ -4534,25 +4617,25 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>71</v>
@@ -4563,18 +4646,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -4583,19 +4666,19 @@
         <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4645,25 +4728,25 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>71</v>
@@ -4672,44 +4755,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4758,36 +4839,36 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>71</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4795,32 +4876,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4845,58 +4928,60 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4904,31 +4989,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
       </c>
@@ -4976,69 +5063,67 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>71</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -5075,22 +5160,22 @@
         <v>71</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5099,13 +5184,13 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>71</v>
@@ -5116,7 +5201,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5127,7 +5212,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -5136,23 +5221,19 @@
         <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -5200,47 +5281,47 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>277</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -5252,15 +5333,17 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>71</v>
@@ -5309,19 +5392,19 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
@@ -5338,11 +5421,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5355,24 +5438,26 @@
         <v>71</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>71</v>
       </c>
@@ -5408,19 +5493,19 @@
         <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5438,7 +5523,7 @@
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>71</v>
@@ -5447,9 +5532,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5457,34 +5542,32 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>71</v>
@@ -5509,13 +5592,11 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5533,36 +5614,36 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5573,7 +5654,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -5582,20 +5663,18 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>71</v>
@@ -5644,31 +5723,31 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -5677,14 +5756,14 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -5693,21 +5772,21 @@
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
       </c>
@@ -5743,48 +5822,48 @@
         <v>71</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5795,29 +5874,31 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -5866,36 +5947,36 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5906,7 +5987,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5915,23 +5996,19 @@
         <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>310</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>71</v>
       </c>
@@ -5979,47 +6056,47 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -6028,23 +6105,21 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>71</v>
       </c>
@@ -6080,48 +6155,48 @@
         <v>71</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6129,34 +6204,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -6181,11 +6256,13 @@
         <v>71</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>71</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>71</v>
@@ -6203,36 +6280,36 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>71</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6243,32 +6320,30 @@
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>71</v>
       </c>
@@ -6316,36 +6391,36 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6353,32 +6428,32 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>333</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6427,36 +6502,36 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>71</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6467,31 +6542,29 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>71</v>
@@ -6540,36 +6613,36 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>97</v>
+        <v>333</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>71</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6580,29 +6653,31 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
@@ -6651,36 +6726,36 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6691,28 +6766,32 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>71</v>
       </c>
@@ -6760,70 +6839,72 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>71</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>71</v>
       </c>
@@ -6847,13 +6928,11 @@
         <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>71</v>
@@ -6871,19 +6950,19 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>71</v>
@@ -6898,44 +6977,44 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>359</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>71</v>
@@ -6984,25 +7063,25 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>71</v>
@@ -7013,7 +7092,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7021,14 +7100,14 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>71</v>
       </c>
@@ -7036,17 +7115,17 @@
         <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>71</v>
@@ -7095,19 +7174,19 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>71</v>
@@ -7124,7 +7203,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7132,14 +7211,14 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>71</v>
       </c>
@@ -7147,17 +7226,19 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>71</v>
@@ -7182,11 +7263,13 @@
         <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
@@ -7204,19 +7287,19 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>71</v>
@@ -7233,7 +7316,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7244,11 +7327,11 @@
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>71</v>
       </c>
@@ -7256,17 +7339,17 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>71</v>
@@ -7315,25 +7398,25 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>71</v>
@@ -7342,9 +7425,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7355,10 +7438,10 @@
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>71</v>
@@ -7367,18 +7450,16 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>95</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>71</v>
       </c>
@@ -7426,19 +7507,19 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>71</v>
@@ -7453,23 +7534,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>71</v>
@@ -7478,18 +7559,18 @@
         <v>71</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>367</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>71</v>
       </c>
@@ -7537,19 +7618,19 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>71</v>
@@ -7564,42 +7645,44 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="I55" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>71</v>
@@ -7648,25 +7731,25 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>369</v>
+        <v>285</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>71</v>
@@ -7677,7 +7760,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7685,14 +7768,14 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>71</v>
       </c>
@@ -7700,17 +7783,17 @@
         <v>71</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>71</v>
@@ -7759,19 +7842,19 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>71</v>
@@ -7788,7 +7871,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7796,14 +7879,14 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>71</v>
       </c>
@@ -7811,17 +7894,17 @@
         <v>71</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>71</v>
@@ -7846,13 +7929,11 @@
         <v>71</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>71</v>
@@ -7870,19 +7951,19 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>71</v>
@@ -7899,7 +7980,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7910,11 +7991,11 @@
         <v>72</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>71</v>
       </c>
@@ -7922,17 +8003,17 @@
         <v>71</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>71</v>
@@ -7981,19 +8062,19 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>71</v>
@@ -8010,7 +8091,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,10 +8102,10 @@
         <v>72</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>71</v>
@@ -8033,17 +8114,17 @@
         <v>71</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>71</v>
@@ -8092,19 +8173,19 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>71</v>
@@ -8119,8 +8200,674 @@
         <v>71</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM59">
+  <autoFilter ref="A1:AM65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8130,7 +8877,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-vision-prescription.xlsx
+++ b/docs/StructureDefinition-vision-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
